--- a/Deliverables/ConferenceSubmission/KafkaBenchmarks.xlsx
+++ b/Deliverables/ConferenceSubmission/KafkaBenchmarks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\University Work\NewcastleUniversityDissertation\Deliverables\ConferenceSubmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joehonour/Projects/NewcastleUniversityDissertation/Deliverables/ConferenceSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -212,11 +211,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single Producer 3x Replication</c:v>
+                  <c:v>Records Per Second</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -233,23 +232,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
+                  <c:v>Single Producer 3x Replication</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Single Producer 3x Synchronous Replication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Three Producers 3x Replication</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Single Consumer </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Three Consumers </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Producer and Consumer </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>786980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2024032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>940521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2615968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>795064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,271 +286,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56FF-42A5-91C5-77F123814896}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single Producer 3x Synchronous Replication</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>421823</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56FF-42A5-91C5-77F123814896}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Three Producers 3x Replication</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2024032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-56FF-42A5-91C5-77F123814896}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single Consumer </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>940521</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-56FF-42A5-91C5-77F123814896}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Three Consumers </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2615968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-56FF-42A5-91C5-77F123814896}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Producer and Consumer </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Records Per Second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>795064</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-56FF-42A5-91C5-77F123814896}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -643,6 +407,7 @@
         <c:crossAx val="445243288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -654,7 +419,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -766,7 +530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1250,7 +1013,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1362,7 +1124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1404,11 +1165,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
+                  <c:v>latency m/s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,23 +1186,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>latency m/s</c:v>
+                  <c:v>median</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99th percentile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.9th percentile </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,112 +1222,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D120-43F5-8FF5-98C88EEAA51D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>99th percentile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>latency m/s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D120-43F5-8FF5-98C88EEAA51D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>99.9th percentile </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>latency m/s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D120-43F5-8FF5-98C88EEAA51D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1687,7 +1354,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3393,20 +3059,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3436,7 +3108,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3453,20 +3131,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3749,19 +3433,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3809,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3837,7 +3521,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +3532,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
